--- a/data/trans_orig/P43C-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Dificultad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>464264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>434701</v>
+        <v>433022</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>496386</v>
+        <v>491842</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5056014368712474</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.473405899350247</v>
+        <v>0.4715778504679781</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5405838093779061</v>
+        <v>0.5356345330178208</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>453977</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>421855</v>
+        <v>426399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>483540</v>
+        <v>485219</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4943985631287526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4594161906220939</v>
+        <v>0.4643654669821792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.526594100649753</v>
+        <v>0.5284221495320219</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>529083</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>498128</v>
+        <v>496705</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>559133</v>
+        <v>563508</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5069462853329392</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4772865800111467</v>
+        <v>0.4759233216571105</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5357390179799092</v>
+        <v>0.5399316689814374</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>514583</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>484533</v>
+        <v>480158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>545538</v>
+        <v>546961</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4930537146670609</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4642609820200906</v>
+        <v>0.4600683310185628</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5227134199888533</v>
+        <v>0.5240766783428897</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>549777</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>520220</v>
+        <v>516920</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>584183</v>
+        <v>576630</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5643172872252958</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5339787533466246</v>
+        <v>0.5305913896608488</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5996328957802407</v>
+        <v>0.5918807587740221</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>424457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>390051</v>
+        <v>397604</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>454014</v>
+        <v>457314</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4356827127747042</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4003671042197595</v>
+        <v>0.4081192412259778</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4660212466533756</v>
+        <v>0.4694086103391517</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>215000</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>197632</v>
+        <v>196950</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>231698</v>
+        <v>231271</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6533402688248947</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6005630683651381</v>
+        <v>0.5984909311461107</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7040810214839018</v>
+        <v>0.7027859164588778</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>114078</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97380</v>
+        <v>97807</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>131446</v>
+        <v>132128</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3466597311751053</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2959189785160981</v>
+        <v>0.2972140835411219</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3994369316348619</v>
+        <v>0.4015090688538892</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>1758124</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1705299</v>
+        <v>1701315</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1816264</v>
+        <v>1821597</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5384397143362744</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5222618026043042</v>
+        <v>0.5210415545458811</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5562458263104828</v>
+        <v>0.5578790508766288</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>1507095</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1448955</v>
+        <v>1443622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1559920</v>
+        <v>1563904</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4615602856637256</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4437541736895171</v>
+        <v>0.4421209491233712</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4777381973956958</v>
+        <v>0.478958445454119</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>736950</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>704752</v>
+        <v>702510</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>766888</v>
+        <v>769751</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6660772028476929</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6369751545186435</v>
+        <v>0.634948928182775</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6931359972526137</v>
+        <v>0.6957228220830201</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>369454</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>339516</v>
+        <v>336653</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>401652</v>
+        <v>403894</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3339227971523071</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3068640027473863</v>
+        <v>0.3042771779169798</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3630248454813564</v>
+        <v>0.3650510718172248</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>710275</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>679219</v>
+        <v>672099</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>739524</v>
+        <v>736902</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6565498896186407</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6278430361423311</v>
+        <v>0.6212620498292923</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6835871663963945</v>
+        <v>0.6811626438983819</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>371554</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>342305</v>
+        <v>344927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>402610</v>
+        <v>409730</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3434501103813594</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3164128336036051</v>
+        <v>0.318837356101618</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3721569638576687</v>
+        <v>0.3787379501707063</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>529316</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>499246</v>
+        <v>497619</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>559897</v>
+        <v>557341</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6092501857027138</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.574639173639667</v>
+        <v>0.5727663767030688</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6444489587694637</v>
+        <v>0.6415076754569562</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>339483</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308902</v>
+        <v>311458</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>369553</v>
+        <v>371180</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3907498142972861</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3555510412305362</v>
+        <v>0.3584923245430438</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4253608263603331</v>
+        <v>0.4272336232969312</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>305752</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>285086</v>
+        <v>285456</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>326158</v>
+        <v>324466</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6798509777741679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.63389913402216</v>
+        <v>0.6347210715403849</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7252245282705325</v>
+        <v>0.721461763172991</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>143982</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>123576</v>
+        <v>125268</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>164648</v>
+        <v>164278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3201490222258321</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2747754717294673</v>
+        <v>0.278538236827009</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3661008659778398</v>
+        <v>0.3652789284596152</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>2282293</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2222915</v>
+        <v>2224960</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2339194</v>
+        <v>2339075</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6508256432709741</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6338930829029384</v>
+        <v>0.6344763771124087</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6670516470532457</v>
+        <v>0.6670176510163902</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>1224473</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1167572</v>
+        <v>1167691</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1283851</v>
+        <v>1281806</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3491743567290259</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.332948352946754</v>
+        <v>0.3329823489836091</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3661069170970615</v>
+        <v>0.365523622887591</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>762942</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>728910</v>
+        <v>728324</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>800004</v>
+        <v>798481</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6100090769832108</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5827989252383087</v>
+        <v>0.5823305384640823</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6396416125837658</v>
+        <v>0.6384245046022263</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>487764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>450702</v>
+        <v>452225</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>521796</v>
+        <v>522382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3899909230167892</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3603583874162342</v>
+        <v>0.3615754953977738</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4172010747616913</v>
+        <v>0.4176694615359177</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>640527</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>607179</v>
+        <v>610130</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>668062</v>
+        <v>671375</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6442340330216145</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6106930281463955</v>
+        <v>0.6136612476818341</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6719278682750155</v>
+        <v>0.6752604723832636</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>353719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>326184</v>
+        <v>322871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>387067</v>
+        <v>384116</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3557659669783855</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3280721317249846</v>
+        <v>0.3247395276167366</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3893069718536045</v>
+        <v>0.3863387523181662</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>480149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>453149</v>
+        <v>452159</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>506005</v>
+        <v>506923</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6298215881392115</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5944047458206778</v>
+        <v>0.5931069362031751</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.663737176135029</v>
+        <v>0.6649421094836897</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>282208</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>256352</v>
+        <v>255434</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>309208</v>
+        <v>310198</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3701784118607885</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.336262823864971</v>
+        <v>0.3350578905163106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4055952541793222</v>
+        <v>0.4068930637968253</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>345720</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>324753</v>
+        <v>324605</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>364339</v>
+        <v>364485</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.717837529234397</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6743017974523606</v>
+        <v>0.6739947426624192</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7564966053669557</v>
+        <v>0.7568008925148041</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>135893</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>117274</v>
+        <v>117128</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>156860</v>
+        <v>157008</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.282162470765603</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2435033946330443</v>
+        <v>0.2431991074851959</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3256982025476393</v>
+        <v>0.3260052573375807</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>2229338</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2171535</v>
+        <v>2170799</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2290418</v>
+        <v>2286861</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6389761364397648</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6224085681356459</v>
+        <v>0.6221976631974629</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6564830049331338</v>
+        <v>0.6554633997551503</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>1259584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1198504</v>
+        <v>1202061</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1317387</v>
+        <v>1318123</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3610238635602351</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3435169950668658</v>
+        <v>0.3445366002448491</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3775914318643539</v>
+        <v>0.3778023368025362</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>244293</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>224654</v>
+        <v>224318</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>265239</v>
+        <v>264112</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4792677181500807</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4407387978135339</v>
+        <v>0.4400782790300558</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5203600058680915</v>
+        <v>0.5181500649663775</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>265429</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>244483</v>
+        <v>245610</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>285068</v>
+        <v>285404</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5207322818499194</v>
+        <v>0.5207322818499193</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4796399941319086</v>
+        <v>0.4818499350336225</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5592612021864662</v>
+        <v>0.5599217209699443</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>438154</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>410424</v>
+        <v>414282</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>463664</v>
+        <v>464654</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5231726962237593</v>
+        <v>0.5231726962237592</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4900616545272096</v>
+        <v>0.494668590478651</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5536320841988761</v>
+        <v>0.5548151162578913</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>399340</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>373830</v>
+        <v>372840</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>427070</v>
+        <v>423212</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4768273037762408</v>
+        <v>0.4768273037762407</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.446367915801124</v>
+        <v>0.4451848837421087</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5099383454727904</v>
+        <v>0.505331409521349</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>475159</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>450132</v>
+        <v>450355</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>498977</v>
+        <v>496862</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6272400103799245</v>
+        <v>0.6272400103799244</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5942024661231519</v>
+        <v>0.5944976278161936</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6586813031844337</v>
+        <v>0.6558899110122137</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>282380</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258562</v>
+        <v>260677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>307407</v>
+        <v>307184</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3727599896200757</v>
+        <v>0.3727599896200756</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3413186968155663</v>
+        <v>0.3441100889877866</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4057975338768481</v>
+        <v>0.4055023721838065</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>434170</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>411604</v>
+        <v>409258</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>456780</v>
+        <v>455679</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6699767503665341</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6351541952999723</v>
+        <v>0.6315342398198144</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7048663990372167</v>
+        <v>0.7031675623889948</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>213868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>191258</v>
+        <v>192359</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>236434</v>
+        <v>238780</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3300232496334659</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2951336009627831</v>
+        <v>0.296832437611005</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3648458047000275</v>
+        <v>0.3684657601801857</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>1591777</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1542667</v>
+        <v>1548558</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1636018</v>
+        <v>1641713</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.578240520214012</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5604004014492804</v>
+        <v>0.5625405349903034</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5943116952902021</v>
+        <v>0.5963806444419297</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>1161017</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1116776</v>
+        <v>1111081</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1210127</v>
+        <v>1204236</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.421759479785988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4056883047097979</v>
+        <v>0.4036193555580703</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4395995985507193</v>
+        <v>0.4374594650096968</v>
       </c>
     </row>
     <row r="18">
